--- a/files.xlsx
+++ b/files.xlsx
@@ -14,41 +14,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Üretici</t>
-  </si>
-  <si>
-    <t>Marka</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t>Kategori</t>
+  </si>
+  <si>
+    <t>EAN Numarası</t>
+  </si>
+  <si>
+    <t>Firma Stok Kodu</t>
   </si>
   <si>
     <t>Ürün Adı</t>
   </si>
   <si>
-    <t>Kategori</t>
-  </si>
-  <si>
-    <t>Ürün ID</t>
-  </si>
-  <si>
     <t>Açıklama</t>
   </si>
   <si>
+    <t>Renk</t>
+  </si>
+  <si>
+    <t>Ağırlık</t>
+  </si>
+  <si>
+    <t>Beden</t>
+  </si>
+  <si>
+    <t>Paket Ölçüsü</t>
+  </si>
+  <si>
+    <t>Cinsiyet</t>
+  </si>
+  <si>
     <t>Fiyat</t>
   </si>
   <si>
     <t>Fotoğraf</t>
+  </si>
+  <si>
+    <t>Müzik Aleti</t>
+  </si>
+  <si>
+    <t>Elektro Gitar HSS</t>
+  </si>
+  <si>
+    <t>https://img-zuhalmuzik.mncdn.com/mnresize/700/700/images/product/163141GRX40-BKN_1.jpg</t>
+  </si>
+  <si>
+    <t>Fender Stratocaster</t>
+  </si>
+  <si>
+    <t>Elektro Gitar SSS</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/288/550/110000277753817.jpg/format:webp</t>
+  </si>
+  <si>
+    <t>Gibson Les Paul</t>
+  </si>
+  <si>
+    <t>Elektro Gitar HH</t>
+  </si>
+  <si>
+    <t>https://www.do-re.com.tr/gibson-les-paul-standard-60s-elektro-gitar-unburst-879c9777149d0aafa13f1156d10b663e-6a16b956012185258c91c5998d81225d-large-pp.jpg</t>
+  </si>
+  <si>
+    <t>Fender Telecaster</t>
+  </si>
+  <si>
+    <t>Elektro Gitar Telecaster</t>
+  </si>
+  <si>
+    <t>https://img-zuhalmuzik.mncdn.com/mnresize/700/700/images/product/1138480145212550_1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$TRY]\ #,##0.00;[$TRY]\ \-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -653,8 +703,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
@@ -1196,24 +1252,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="28.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="19.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="16.0277777777778" customWidth="1"/>
+    <col min="3" max="3" width="15.3518518518519" customWidth="1"/>
+    <col min="4" max="4" width="32.6944444444444" customWidth="1"/>
+    <col min="5" max="5" width="24.1203703703704" customWidth="1"/>
+    <col min="6" max="6" width="12.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="12.0555555555556" customWidth="1"/>
+    <col min="8" max="8" width="9.83333333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.962962962963" customWidth="1"/>
+    <col min="10" max="10" width="11.1018518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="13" width="19.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,33 +1300,137 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="8:8">
-      <c r="H2" s="1"/>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>312</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1">
+        <v>34000</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="8:8">
-      <c r="H4" s="1"/>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>312</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>432</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1">
+        <v>34000</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="8:8">
-      <c r="H7" s="1"/>
+    <row r="7" spans="14:14">
+      <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="8:8">
-      <c r="H8" s="2"/>
+    <row r="8" spans="14:14">
+      <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="1"/>
+    <row r="9" spans="14:14">
+      <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="2"/>
+    <row r="10" spans="14:14">
+      <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="8:8">
-      <c r="H11" s="2"/>
+    <row r="11" spans="14:14">
+      <c r="N11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
